--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>زيت حبوبة خليط - 900 مل</t>
-  </si>
-  <si>
-    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
-  </si>
-  <si>
-    <t>كل يوم عصير مانجو - 200 مل</t>
+    <t>شاى ليبتون اخضر - 25 فتلة</t>
+  </si>
+  <si>
+    <t>امريكانا فول مدمس اسكندرانى بالطحينة - 400 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مقشور بالفلفل الحار خصم %15 - 400 جم</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,7 +438,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>823</v>
+        <v>9796</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -447,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>780.5</v>
+        <v>1452</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -455,16 +455,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>8216</v>
+        <v>9796</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>330</v>
+        <v>30.25</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -472,16 +472,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>8216</v>
+        <v>9921</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>13.75</v>
+        <v>21.25</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -489,19 +489,53 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>11838</v>
+        <v>9921</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>113.25</v>
+        <v>510</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>10449</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>10</v>
+      </c>
+      <c r="D6">
+        <v>17.75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>10449</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>213</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,16 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شاى ليبتون اخضر - 25 فتلة</t>
-  </si>
-  <si>
-    <t>امريكانا فول مدمس اسكندرانى بالطحينة - 400 جم</t>
-  </si>
-  <si>
-    <t>هارفست فول مقشور بالفلفل الحار خصم %15 - 400 جم</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>كوكا كولا - 0.95 لتر</t>
+  </si>
+  <si>
+    <t>اريال أتوماتيك داونى - 9 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -407,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,104 +432,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>9796</v>
+        <v>3670</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1452</v>
+        <v>126.5</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>9796</v>
+        <v>19687</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>30.25</v>
+        <v>956.5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>9921</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>21.25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>9921</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>510</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>10449</v>
-      </c>
-      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>17.75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>10449</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>213</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كوكا كولا - 0.95 لتر</t>
-  </si>
-  <si>
-    <t>اريال أتوماتيك داونى - 9 كجم</t>
+    <t>حفاضات جود كير مقاس 4 - 40 حفاضة</t>
+  </si>
+  <si>
+    <t>جبنة ابو الولد كريمى سبريد شيدر 20 جنيه - 100 جم</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,16 +435,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3670</v>
+        <v>2423</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>126.5</v>
+        <v>160.75</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -449,19 +452,53 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19687</v>
+        <v>2423</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>803.75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>12993</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>16.25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>12993</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>956.5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="D5">
+        <v>325</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>حفاضات جود كير مقاس 4 - 40 حفاضة</t>
-  </si>
-  <si>
-    <t>جبنة ابو الولد كريمى سبريد شيدر 20 جنيه - 100 جم</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>ماكسى كولا - 400 مل</t>
+  </si>
+  <si>
+    <t>سندة أرز رفيع- 1 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,16 +432,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2423</v>
+        <v>8672</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>160.75</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -452,53 +449,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2423</v>
+        <v>11894</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>803.75</v>
+        <v>242.25</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>12993</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>16.25</v>
-      </c>
-      <c r="E4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>12993</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>325</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ماكسى كولا - 400 مل</t>
-  </si>
-  <si>
-    <t>سندة أرز رفيع- 1 كجم</t>
+    <t>مكتفيز بسكويت شوفان الذهبي - 5 ج</t>
+  </si>
+  <si>
+    <t>جبنة لا فاش كيرى كلاسيك - 8 مثلث</t>
+  </si>
+  <si>
+    <t>فرسكا ستكس ويفر ملفوف محشو بكريمه الكاكاو والبندق 3 قطعه</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 700 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +438,121 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>8672</v>
+        <v>2225</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>49.5</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>11894</v>
+        <v>2225</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>594</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>10149</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>242.25</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>32.25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>10149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1290</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>12585</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>606</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>12585</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>50.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>12924</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>565.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,16 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكتفيز بسكويت شوفان الذهبي - 5 ج</t>
-  </si>
-  <si>
-    <t>جبنة لا فاش كيرى كلاسيك - 8 مثلث</t>
-  </si>
-  <si>
-    <t>فرسكا ستكس ويفر ملفوف محشو بكريمه الكاكاو والبندق 3 قطعه</t>
-  </si>
-  <si>
-    <t>زيت ثمرات خليط - 700 مل</t>
+    <t>كل يوم عصير تفاح - 200 مل</t>
+  </si>
+  <si>
+    <t>المراعي جبنة فيتا بالرومي -عرض الكل كسبان 250 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -407,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,121 +432,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2225</v>
+        <v>11837</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>49.5</v>
+        <v>119.75</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2225</v>
+        <v>24724</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>594</v>
+        <v>518.75</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>10149</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>32.25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>10149</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1290</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>12585</v>
-      </c>
-      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>606</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>12585</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>50.5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>12924</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>565.5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,22 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كل يوم عصير تفاح - 200 مل</t>
-  </si>
-  <si>
-    <t>المراعي جبنة فيتا بالرومي -عرض الكل كسبان 250 جم</t>
+    <t>عصير بيتى تفاح - 235 مل</t>
+  </si>
+  <si>
+    <t>كلوركس الوان - 950 مل</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل يدوى ابيض - 9 كجم</t>
+  </si>
+  <si>
+    <t>اندومى فراخ جامبو عرض 44 كيس - 100 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>اوكسى جل يدوى ابيض و الوان نسيم الربيع - 30 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +444,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11837</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -441,27 +453,95 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>119.75</v>
+        <v>191.25</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24724</v>
+        <v>1523</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>518.75</v>
+        <v>620</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3334</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>163.25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>7007</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>383</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>8356</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>325.25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>11158</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,25 +37,25 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير بيتى تفاح - 235 مل</t>
-  </si>
-  <si>
-    <t>كلوركس الوان - 950 مل</t>
-  </si>
-  <si>
-    <t>مسحوق غسيل فل يدوى ابيض - 9 كجم</t>
-  </si>
-  <si>
-    <t>اندومى فراخ جامبو عرض 44 كيس - 100 جم</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى نسيم الشرق - 1.5 كجم</t>
-  </si>
-  <si>
-    <t>اوكسى جل يدوى ابيض و الوان نسيم الربيع - 30 جم</t>
+    <t>شويبس رمان - 1.75 لتر</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
+  </si>
+  <si>
+    <t>كل يوم عصير جوافة  - 200 مل</t>
+  </si>
+  <si>
+    <t>لارش ميلت كيك بصوص الكاكاو ومغطي بالكاكاو - 10 جنية</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>143</v>
+        <v>2328</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -453,41 +453,41 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>191.25</v>
+        <v>209.75</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1523</v>
+        <v>2778</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>620</v>
+        <v>205</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3334</v>
+        <v>3558</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>163.25</v>
+        <v>28.5</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -495,53 +495,87 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>7007</v>
+        <v>3558</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>383</v>
+        <v>684</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>8356</v>
+        <v>3558</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>325.25</v>
+        <v>342</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>11158</v>
+        <v>3558</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>1368</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>11835</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>115.25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>13028</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>205</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,25 +37,34 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شويبس رمان - 1.75 لتر</t>
-  </si>
-  <si>
-    <t>كوكا كولا - 2.45 لتر</t>
-  </si>
-  <si>
-    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
-  </si>
-  <si>
-    <t>كل يوم عصير جوافة  - 200 مل</t>
-  </si>
-  <si>
-    <t>لارش ميلت كيك بصوص الكاكاو ومغطي بالكاكاو - 10 جنية</t>
+    <t>كلوريتا  كلور حجم جديد - 1 كجم</t>
+  </si>
+  <si>
+    <t>كلوركس كلور - 3.79 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس جل انتعاش الليمون - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون - 4 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس الوان عادى - 475 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نعناع اخضر - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض زهور - 950 مل</t>
+  </si>
+  <si>
+    <t>كلوركس الوان - 750 مل</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -413,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,138 +453,155 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2328</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>209.75</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2778</v>
+        <v>1433</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3558</v>
+        <v>2668</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>28.5</v>
+        <v>507</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3558</v>
+        <v>3386</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>684</v>
+        <v>322</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>3558</v>
+        <v>3387</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>342</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>3558</v>
+        <v>3389</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1368</v>
+        <v>265</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>11835</v>
+        <v>3395</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>115.25</v>
+        <v>373</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>13028</v>
+        <v>8896</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>205</v>
+        <v>322</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>10254</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>474</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,31 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كلوريتا  كلور حجم جديد - 1 كجم</t>
-  </si>
-  <si>
-    <t>كلوركس كلور - 3.79 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس جل انتعاش الليمون - 750 مل</t>
-  </si>
-  <si>
-    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
-  </si>
-  <si>
-    <t>كلوركس كلور ابيض ليمون - 4 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس الوان عادى - 475 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نعناع اخضر - 400 مل</t>
-  </si>
-  <si>
-    <t>كلوركس كلور ابيض زهور - 950 مل</t>
-  </si>
-  <si>
-    <t>كلوركس الوان - 750 مل</t>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -422,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>382</v>
+        <v>8216</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -462,146 +438,27 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>181</v>
+        <v>360</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1433</v>
+        <v>8216</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>211</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>2668</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>507</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3386</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>322</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>3387</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>210</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>3389</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>265</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>3395</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>373</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>8896</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>322</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>10254</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>474</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+    <t>حفاضات جود كير مقاس 3 - 100 حفاضة</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 3 - 58 حفاضة</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,36 +432,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>8216</v>
+        <v>6540</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>360</v>
+        <v>375.5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>8216</v>
+        <v>6540</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>751</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>9996</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>635.25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>9996</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>211.75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,55 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>حفاضات جود كير مقاس 3 - 100 حفاضة</t>
-  </si>
-  <si>
-    <t>حفاضات جود كير مقاس 3 - 58 حفاضة</t>
+    <t>كلوريتا  كلور حجم جديد - 1 كجم</t>
+  </si>
+  <si>
+    <t>ستينج فراولة زجاج - 275 مل</t>
+  </si>
+  <si>
+    <t>شويبس رمان - 1.75 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون اصفر باوش - 200 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل نعناع - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس متعدد الاستخدامات - 1 لتر</t>
+  </si>
+  <si>
+    <t>سوفى ماكسى بالمسك طويل سميكة عرض خاص - 16 فوطة</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون - 4 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس الوان برائحة الزهور - 475 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نعناع اخضر باوش - 200 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر باوش - 200 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نعناع اخضر - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر ازرق - 700 مل</t>
+  </si>
+  <si>
+    <t>سوفى ماكسى سميكة طويل جدا بالمسك عرض خاص - 14 فوطة</t>
+  </si>
+  <si>
+    <t>كلوركس جل زهور - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس الوان - 750 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,70 +477,325 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>6540</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>375.5</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>6540</v>
+        <v>1124</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>751</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>9996</v>
+        <v>2328</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>635.25</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>9996</v>
+        <v>2655</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>211.75</v>
+        <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2669</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>509</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2670</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>447</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2912</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>600</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2912</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>3386</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>323</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>3387</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>211</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3390</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>267</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3393</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>203</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3394</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>203</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3395</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>375</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3399</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>507</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>5165</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>600</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>5165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>6946</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>509</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>10254</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>475</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,55 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كلوريتا  كلور حجم جديد - 1 كجم</t>
-  </si>
-  <si>
-    <t>ستينج فراولة زجاج - 275 مل</t>
-  </si>
-  <si>
-    <t>شويبس رمان - 1.75 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 ليمون اصفر باوش - 200 مل</t>
-  </si>
-  <si>
-    <t>كلوركس جل نعناع - 750 مل</t>
-  </si>
-  <si>
-    <t>كلوركس متعدد الاستخدامات - 1 لتر</t>
-  </si>
-  <si>
-    <t>سوفى ماكسى بالمسك طويل سميكة عرض خاص - 16 فوطة</t>
-  </si>
-  <si>
-    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
-  </si>
-  <si>
-    <t>كلوركس كلور ابيض ليمون - 4 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس الوان برائحة الزهور - 475 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نعناع اخضر باوش - 200 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نسيم البحر باوش - 200 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نعناع اخضر - 400 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نسيم البحر ازرق - 700 مل</t>
-  </si>
-  <si>
-    <t>سوفى ماكسى سميكة طويل جدا بالمسك عرض خاص - 14 فوطة</t>
-  </si>
-  <si>
-    <t>كلوركس جل زهور - 750 مل</t>
-  </si>
-  <si>
-    <t>كلوركس الوان - 750 مل</t>
+    <t>مسحوق باهى يدوى لافندر 12 كيس- 135 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهي يدوي لافندر  - 60 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -446,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +432,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>382</v>
+        <v>24566</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -486,316 +441,27 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>182</v>
+        <v>93.75</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1124</v>
+        <v>24567</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>160</v>
+        <v>91.25</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>2328</v>
-      </c>
-      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>201</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>2655</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>203</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>2669</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>509</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>2670</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>447</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>2912</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>600</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>2912</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>3386</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>323</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>3387</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>211</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>3390</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>267</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>3393</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>203</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>3394</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>203</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>3395</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>375</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>3399</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>507</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>5165</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>600</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>5165</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>6946</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>509</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>10254</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>475</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مسحوق باهى يدوى لافندر 12 كيس- 135 جم</t>
-  </si>
-  <si>
-    <t>مسحوق باهي يدوي لافندر  - 60 جم</t>
+    <t>فانتا برتقال - 1.45 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24566</v>
+        <v>2774</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>93.75</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>24567</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>91.25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فانتا برتقال - 1.45 لتر</t>
+    <t>جبنة ديرى فيتا بلس  - 125 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2774</v>
+        <v>21781</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>191</v>
+        <v>284.75</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>جبنة ديرى فيتا بلس  - 125 جم</t>
+    <t>عصير تانج مانجو ظرف - 20 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى - 2 كجم</t>
+  </si>
+  <si>
+    <t>صابون لوكس بشرة مثالية - 165 جم</t>
+  </si>
+  <si>
+    <t>-اريال أتوماتيك داونى - 9 كجم</t>
+  </si>
+  <si>
+    <t>بونكس - 9 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +441,121 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21781</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>345</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1050</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>9126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>447.75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>11887</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>284.75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>11887</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19687</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>996.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>22327</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>688.25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_1124.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_1124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,22 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير تانج مانجو ظرف - 20 جم</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى - 2 كجم</t>
-  </si>
-  <si>
-    <t>صابون لوكس بشرة مثالية - 165 جم</t>
-  </si>
-  <si>
-    <t>-اريال أتوماتيك داونى - 9 كجم</t>
-  </si>
-  <si>
-    <t>بونكس - 9 كجم</t>
+    <t>كوفى ميكس بونجورنو ظرف - 12 جم</t>
+  </si>
+  <si>
+    <t>سبرايت - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>رويال أعشاب كركديه - 20 فتلة</t>
+  </si>
+  <si>
+    <t>كوكاكولا اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>زيووو كرانشى الجبنة - 5 جنية</t>
   </si>
   <si>
     <t>YES</t>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,58 +444,58 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>345</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>1740</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>345</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>1050</v>
+        <v>72.5</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>9126</v>
+        <v>2775</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>447.75</v>
+        <v>220.5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>11887</v>
+        <v>2778</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -501,61 +504,78 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>222.5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>11887</v>
+        <v>4175</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1200</v>
+        <v>1296</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19687</v>
+        <v>4175</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>996.25</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>22327</v>
+        <v>6935</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>109.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>12345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>688.25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
+      <c r="D9">
+        <v>47.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
